--- a/Collections/Евро/Spain/#EURO#Spain#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Spain/#EURO#Spain#Commemorative[2005-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -487,6 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,13 +499,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,6 +512,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -544,15 +553,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -574,9 +574,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="6"/>
-    <tableColumn id="2" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -847,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -868,28 +868,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1405,11 +1405,11 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5 G7 G9:G22">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G3 G7 G9:G22">
+  <conditionalFormatting sqref="G3 G5 G7 G9:G22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1422,7 +1422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1439,7 +1439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1456,7 +1456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1576,8 +1576,8 @@
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
